--- a/知识点目录/周考1-16试卷知识点目录.xlsx
+++ b/知识点目录/周考1-16试卷知识点目录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="28640" windowHeight="17460" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="7320" yWindow="2880" windowWidth="28640" windowHeight="17460" tabRatio="500" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2198,12 +2198,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2323,13 +2325,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2610,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2624,13 +2626,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -3740,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3754,13 +3756,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -4853,13 +4855,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -5850,8 +5852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5864,13 +5866,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -6875,13 +6877,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -7960,13 +7962,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -8931,13 +8933,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -9900,7 +9902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -9918,13 +9920,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -10995,8 +10997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -11009,13 +11011,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -11359,7 +11361,7 @@
       <c r="D19" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>556</v>
       </c>
       <c r="F19" s="7"/>
@@ -12040,7 +12042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -12054,13 +12056,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -13141,7 +13143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -13155,13 +13157,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -14240,7 +14242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -14254,13 +14256,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -15285,7 +15287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -15299,13 +15301,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -16384,8 +16386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -16399,13 +16401,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -17478,8 +17480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -17493,13 +17495,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -18578,8 +18580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -18592,13 +18594,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
